--- a/Баллы 2019.xlsx
+++ b/Баллы 2019.xlsx
@@ -17,7 +17,6 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1056,7 +1055,7 @@
       <pane xSplit="2" ySplit="23" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomRight" activeCell="C23" sqref="C23:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1192,8 +1191,12 @@
       <c r="D2" s="3">
         <v>1</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="E2" s="3">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -1216,7 +1219,7 @@
       <c r="Z2" s="24"/>
       <c r="AA2" s="27">
         <f t="shared" ref="AA2:AA7" si="0">SUM(C2:Z2)</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AB2" s="27">
         <v>85</v>
@@ -1245,8 +1248,12 @@
       <c r="D3" s="3">
         <v>1</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="E3" s="3">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -1269,7 +1276,7 @@
       <c r="Z3" s="24"/>
       <c r="AA3" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AB3" s="6">
         <v>85</v>
@@ -1298,8 +1305,12 @@
       <c r="D4" s="3">
         <v>0</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -1351,8 +1362,12 @@
       <c r="D5" s="3">
         <v>1</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="E5" s="3">
+        <v>5</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -1375,7 +1390,7 @@
       <c r="Z5" s="24"/>
       <c r="AA5" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AB5" s="6">
         <v>85</v>
@@ -1404,8 +1419,12 @@
       <c r="D6" s="3">
         <v>1</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="E6" s="3">
+        <v>5</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -1428,7 +1447,7 @@
       <c r="Z6" s="24"/>
       <c r="AA6" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AB6" s="6">
         <v>85</v>
@@ -1457,8 +1476,12 @@
       <c r="D7" s="3">
         <v>0</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -1510,8 +1533,12 @@
       <c r="D8" s="3">
         <v>1</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="E8" s="3">
+        <v>5</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -1534,7 +1561,7 @@
       <c r="Z8" s="24"/>
       <c r="AA8" s="6">
         <f t="shared" ref="AA8:AA19" si="7">SUM(C8:Z8)</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AB8" s="6">
         <v>85</v>
@@ -1563,8 +1590,12 @@
       <c r="D9" s="3">
         <v>1</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="E9" s="3">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -1587,7 +1618,7 @@
       <c r="Z9" s="24"/>
       <c r="AA9" s="6">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AB9" s="6">
         <v>85</v>
@@ -1616,8 +1647,12 @@
       <c r="D10" s="3">
         <v>1</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="E10" s="3">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -1640,7 +1675,7 @@
       <c r="Z10" s="24"/>
       <c r="AA10" s="6">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AB10" s="6">
         <v>85</v>
@@ -1669,8 +1704,12 @@
       <c r="D11" s="3">
         <v>1</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -1722,8 +1761,12 @@
       <c r="D12" s="39">
         <v>1</v>
       </c>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
+      <c r="E12" s="39">
+        <v>5</v>
+      </c>
+      <c r="F12" s="39">
+        <v>1</v>
+      </c>
       <c r="G12" s="39"/>
       <c r="H12" s="39"/>
       <c r="I12" s="39"/>
@@ -1746,7 +1789,7 @@
       <c r="Z12" s="40"/>
       <c r="AA12" s="6">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AB12" s="6">
         <v>85</v>
@@ -1775,8 +1818,12 @@
       <c r="D13" s="3">
         <v>1</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="E13" s="3">
+        <v>5</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -1799,7 +1846,7 @@
       <c r="Z13" s="24"/>
       <c r="AA13" s="6">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AB13" s="6">
         <v>85</v>
@@ -1828,8 +1875,12 @@
       <c r="D14" s="3">
         <v>1</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="E14" s="3">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -1852,7 +1903,7 @@
       <c r="Z14" s="24"/>
       <c r="AA14" s="6">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AB14" s="6">
         <v>85</v>
@@ -1881,8 +1932,12 @@
       <c r="D15" s="3">
         <v>1</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="E15" s="3">
+        <v>5</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -1905,7 +1960,7 @@
       <c r="Z15" s="24"/>
       <c r="AA15" s="6">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AB15" s="6">
         <v>85</v>
@@ -1934,8 +1989,12 @@
       <c r="D16" s="3">
         <v>0</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="E16" s="3">
+        <v>5</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -1958,7 +2017,7 @@
       <c r="Z16" s="24"/>
       <c r="AA16" s="6">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AB16" s="6">
         <v>85</v>
@@ -1987,8 +2046,12 @@
       <c r="D17" s="3">
         <v>1</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="E17" s="3">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -2011,7 +2074,7 @@
       <c r="Z17" s="24"/>
       <c r="AA17" s="6">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AB17" s="6">
         <v>85</v>
@@ -2040,8 +2103,12 @@
       <c r="D18" s="3">
         <v>1</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="E18" s="3">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -2064,7 +2131,7 @@
       <c r="Z18" s="24"/>
       <c r="AA18" s="6">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AB18" s="6">
         <v>85</v>
@@ -2093,8 +2160,12 @@
       <c r="D19" s="3">
         <v>1</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="E19" s="3">
+        <v>2</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -2117,7 +2188,7 @@
       <c r="Z19" s="24"/>
       <c r="AA19" s="6">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AB19" s="6">
         <v>85</v>
@@ -2146,8 +2217,12 @@
       <c r="D20" s="3">
         <v>1</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="E20" s="3">
+        <v>5</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -2170,7 +2245,7 @@
       <c r="Z20" s="24"/>
       <c r="AA20" s="6">
         <f t="shared" ref="AA20:AA22" si="15">SUM(C20:Z20)</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AB20" s="6">
         <v>85</v>
@@ -2199,8 +2274,12 @@
       <c r="D21" s="3">
         <v>1</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -2252,8 +2331,12 @@
       <c r="D22" s="45">
         <v>1</v>
       </c>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
+      <c r="E22" s="45">
+        <v>5</v>
+      </c>
+      <c r="F22" s="45">
+        <v>1</v>
+      </c>
       <c r="G22" s="45"/>
       <c r="H22" s="45"/>
       <c r="I22" s="45"/>
@@ -2276,7 +2359,7 @@
       <c r="Z22" s="46"/>
       <c r="AA22" s="6">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AB22" s="6">
         <v>85</v>
@@ -2732,7 +2815,7 @@
       <c r="AB36" s="11"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="JHQ18cdKC+7k5NLbRf29tCNr6VQ4Tw+LvPxmU66NbTNf1N4/UjCch3LXELLo1xYvztk8j2xFpEddA+W9ewBskw==" saltValue="CWU6yn6a4tdI0bUZ19SVIQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" sort="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="9A9dnMVh7YbDUBVqzfI3u+pKThG9tnBVXgAgNf9QqVWouAPcGReh575eyUMCAZJHyNANQ8dcCgDIwcBGcr933Q==" saltValue="RNXJxmLoOcIXa8N+Wv9rzA==" spinCount="100000" sheet="1" objects="1" scenarios="1" sort="0"/>
   <sortState ref="A2:A22">
     <sortCondition ref="A2"/>
   </sortState>
